--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Sum hours</t>
   </si>
   <si>
-    <t>      Wednesday</t>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>Meeting</t>
@@ -58,13 +58,16 @@
     <t>Research</t>
   </si>
   <si>
-    <t>      Thursday</t>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Lecture, reading, summerizing logs</t>
   </si>
   <si>
     <t>LV3 Monday</t>
+  </si>
+  <si>
+    <t>Reading, example coding, erlang reminding</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -240,7 +243,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>22.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +310,15 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -68,15 +68,22 @@
   </si>
   <si>
     <t>Reading, example coding, erlang reminding</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Writing for planning report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -144,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +161,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -243,7 +254,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,6 +331,20 @@
         <v>16</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>42038</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Writing for planning report</t>
+  </si>
+  <si>
+    <t>Meeting, docs working</t>
+  </si>
+  <si>
+    <t>Document feedback</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Language workshop, docs working, git flow guide</t>
   </si>
 </sst>
 </file>
@@ -185,10 +197,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -254,7 +266,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>31</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,6 +356,48 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>42039</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>42040</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>42041</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Language workshop, docs working, git flow guide</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -197,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -266,7 +272,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>38.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,6 +404,34 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>42042</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>42043</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -91,7 +91,16 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>BNFC recapping and grammar experimentation</t>
+  </si>
+  <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>LV4 Monday</t>
+  </si>
+  <si>
+    <t>Proofreading</t>
   </si>
 </sst>
 </file>
@@ -203,10 +212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -272,7 +281,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>42.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,12 +426,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>42043</v>
@@ -432,6 +441,42 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>42044</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>42045</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>42046</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Proofreading</t>
+  </si>
+  <si>
+    <t>Meeting, grammar experimentation, document formating</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -281,7 +284,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,6 +480,12 @@
       </c>
       <c r="B18" s="3" t="n">
         <v>42046</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -215,10 +215,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -284,7 +284,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>48.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,6 +486,20 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>42047</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Meeting, grammar experimentation, document formating</t>
+  </si>
+  <si>
+    <t>Workshop and planning report</t>
   </si>
 </sst>
 </file>
@@ -215,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -284,7 +287,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,6 +503,20 @@
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>42049</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Workshop and planning report</t>
+  </si>
+  <si>
+    <t>LV5 Monday</t>
+  </si>
+  <si>
+    <t>Implementation of the code generator</t>
   </si>
 </sst>
 </file>
@@ -218,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -287,7 +293,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,6 +523,20 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>42051</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -224,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -293,7 +293,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,6 +536,20 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>42052</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -558,7 +572,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +598,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Implementation of the code generator</t>
+  </si>
+  <si>
+    <t>Meeting and code generator test implementation</t>
   </si>
 </sst>
 </file>
@@ -224,10 +227,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -293,7 +296,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,6 +554,20 @@
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>42053</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +589,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +615,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Meeting and code generator test implementation</t>
+  </si>
+  <si>
+    <t>Testing of the code generator</t>
+  </si>
+  <si>
+    <t>Translating the code generator to new AST</t>
   </si>
 </sst>
 </file>
@@ -227,10 +233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -296,7 +302,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,6 +574,34 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>42054</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>42056</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Translating the code generator to new AST</t>
+  </si>
+  <si>
+    <t>LV 6 Monday</t>
   </si>
 </sst>
 </file>
@@ -233,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -302,7 +305,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,6 +605,20 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>42058</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>LV 6 Monday</t>
+  </si>
+  <si>
+    <t>Integration, code generator testing</t>
   </si>
 </sst>
 </file>
@@ -236,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -305,7 +308,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,6 +622,20 @@
       </c>
       <c r="D26" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>42059</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Integration, code generator testing</t>
+  </si>
+  <si>
+    <t>Code generator implementation and meeting</t>
   </si>
 </sst>
 </file>
@@ -239,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -308,7 +311,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,6 +639,20 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>42060</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Code generator implementation and meeting</t>
+  </si>
+  <si>
+    <t>LV 7 Tuesday</t>
+  </si>
+  <si>
+    <t>Code generator implementation and example report reading</t>
   </si>
 </sst>
 </file>
@@ -242,10 +248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -311,7 +317,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,6 +659,20 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>42066</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -248,10 +248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -317,7 +317,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,6 +673,20 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>42067</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Code generator implementation and example report reading</t>
+  </si>
+  <si>
+    <t>Writing material for the half time report</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
@@ -317,7 +320,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,6 +690,20 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>42068</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Writing material for the half time report</t>
+  </si>
+  <si>
+    <t>Code generator implementation</t>
   </si>
 </sst>
 </file>
@@ -251,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -320,7 +323,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,6 +707,20 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>42069</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -254,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -323,7 +323,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,6 +720,20 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>42071</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Code generator implementation</t>
+  </si>
+  <si>
+    <t>LV 8 Monday</t>
   </si>
 </sst>
 </file>
@@ -254,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -323,7 +326,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,6 +737,20 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>42072</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -756,7 +773,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,7 +799,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>LV 8 Monday</t>
+  </si>
+  <si>
+    <t>Presentation, pre code gen renaming implementation</t>
   </si>
 </sst>
 </file>
@@ -257,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -326,7 +329,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,6 +755,20 @@
       </c>
       <c r="D34" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>42073</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +790,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -799,7 +816,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Presentation, pre code gen renaming implementation</t>
+  </si>
+  <si>
+    <t>Meeting and discussions</t>
+  </si>
+  <si>
+    <t>Report writing</t>
   </si>
 </sst>
 </file>
@@ -260,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -329,7 +335,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,6 +775,34 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>42074</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>42078</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/johan-w/johan-w-timelog.xlsx
+++ b/Individual documents/johan-w/johan-w-timelog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Time log bachelors thesis DATX02</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Report writing</t>
+  </si>
+  <si>
+    <t>ExamWeek Monday</t>
   </si>
 </sst>
 </file>
@@ -266,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -335,7 +338,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(C4:C100)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,6 +805,34 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>42079</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>42080</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
     </row>
